--- a/COVID NFLStats/RB/RB_aggregate.xlsx
+++ b/COVID NFLStats/RB/RB_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>D'Ernest Johnson</t>
+          <t>Austin Ekeler</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -504,22 +504,22 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>7.899999999999999</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>31.46666666666667</v>
+        <v>47.86666666666667</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>10.33333333333333</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>D'Ernest Johnson</t>
+          <t>Austin Ekeler</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -528,22 +528,22 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3.8</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>8.1</v>
+        <v>8.566666666666666</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>54.66666666666666</v>
+        <v>49.13333333333333</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>4.333333333333333</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>D'Ernest Johnson</t>
+          <t>Austin Ekeler</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>-1.4</v>
+        <v>-0.1333333333333337</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2000000000000002</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>23.2</v>
+        <v>1.266666666666659</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-6.000000000000001</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Kareem Hunt</t>
+          <t>D'Ernest Johnson</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -576,22 +576,22 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>4.433333333333334</v>
+        <v>5.2</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>7.866666666666667</v>
+        <v>7.899999999999999</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>49.63333333333333</v>
+        <v>31.46666666666667</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>24.66666666666667</v>
+        <v>10.33333333333333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Kareem Hunt</t>
+          <t>D'Ernest Johnson</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -600,22 +600,22 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>3.466666666666667</v>
+        <v>3.8</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>6.433333333333334</v>
+        <v>8.1</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>49.8</v>
+        <v>54.66666666666666</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>36.66666666666666</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Kareem Hunt</t>
+          <t>D'Ernest Johnson</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -624,22 +624,22 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-0.9666666666666668</v>
+        <v>-1.4</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>-1.433333333333334</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.1666666666666714</v>
+        <v>23.2</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>12</v>
+        <v>-6.000000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>Alexander Mattison</t>
+          <t>jamaalwilliams</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>4.266666666666667</v>
+        <v>4.133333333333334</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>8.299999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>41.93333333333333</v>
+        <v>53.06666666666666</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>23.66666666666667</v>
+        <v>31.33333333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Alexander Mattison</t>
+          <t>jamaalwilliams</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3.633333333333333</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>6.899999999999999</v>
+        <v>5.266666666666667</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>42.63333333333333</v>
+        <v>46.86666666666667</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>24.66666666666667</v>
+        <v>31.66666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Alexander Mattison</t>
+          <t>jamaalwilliams</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>-0.6333333333333337</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.399999999999999</v>
+        <v>-1.433333333333334</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.7000000000000028</v>
+        <v>-6.199999999999996</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1</v>
+        <v>0.3333333333333357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Austin Ekeler</t>
+          <t>Kareem Hunt</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>4.4</v>
+        <v>4.433333333333334</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>9.166666666666666</v>
+        <v>7.866666666666667</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>47.86666666666667</v>
+        <v>49.63333333333333</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>37</v>
+        <v>24.66666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Austin Ekeler</t>
+          <t>Kareem Hunt</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -744,22 +744,22 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>4.266666666666667</v>
+        <v>3.466666666666667</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>8.566666666666666</v>
+        <v>6.433333333333334</v>
       </c>
       <c r="E12" s="3" t="n">
-        <v>49.13333333333333</v>
+        <v>49.8</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>33</v>
+        <v>36.66666666666666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Austin Ekeler</t>
+          <t>Kareem Hunt</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -768,22 +768,22 @@
         </is>
       </c>
       <c r="C13" s="3" t="n">
-        <v>-0.1333333333333337</v>
+        <v>-0.9666666666666668</v>
       </c>
       <c r="D13" s="3" t="n">
-        <v>-0.5999999999999996</v>
+        <v>-1.433333333333334</v>
       </c>
       <c r="E13" s="3" t="n">
-        <v>1.266666666666659</v>
+        <v>0.1666666666666714</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>Travis Homer</t>
+          <t>Mike Boone</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -792,22 +792,22 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>6.066666666666667</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>8.4</v>
+        <v>7.233333333333333</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>49.03333333333333</v>
+        <v>53.5</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>Travis Homer</t>
+          <t>Mike Boone</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>3.85</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>6.75</v>
+        <v>4.8</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>57.05</v>
+        <v>51.6</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>Travis Homer</t>
+          <t>Mike Boone</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -840,22 +840,22 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-2.216666666666668</v>
+        <v>-2.333333333333334</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-1.65</v>
+        <v>-2.433333333333334</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>8.016666666666666</v>
+        <v>-1.899999999999999</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-3</v>
+        <v>-0.6666666666666665</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Mike Boone</t>
+          <t>Travis Homer</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="C17" s="3" t="n">
-        <v>6.600000000000001</v>
+        <v>6.066666666666667</v>
       </c>
       <c r="D17" s="3" t="n">
-        <v>7.233333333333333</v>
+        <v>8.4</v>
       </c>
       <c r="E17" s="3" t="n">
-        <v>53.5</v>
+        <v>49.03333333333333</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>4.333333333333333</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Mike Boone</t>
+          <t>Travis Homer</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -888,22 +888,22 @@
         </is>
       </c>
       <c r="C18" s="3" t="n">
-        <v>4.266666666666667</v>
+        <v>3.85</v>
       </c>
       <c r="D18" s="3" t="n">
-        <v>4.8</v>
+        <v>6.75</v>
       </c>
       <c r="E18" s="3" t="n">
-        <v>51.6</v>
+        <v>57.05</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>3.666666666666667</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Mike Boone</t>
+          <t>Travis Homer</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -912,88 +912,16 @@
         </is>
       </c>
       <c r="C19" s="3" t="n">
-        <v>-2.333333333333334</v>
+        <v>-2.216666666666668</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>-2.433333333333334</v>
+        <v>-1.65</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>-1.899999999999999</v>
+        <v>8.016666666666666</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-0.6666666666666665</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>jamaalwilliams</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>Group1</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>4.133333333333334</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="E20" s="2" t="n">
-        <v>53.06666666666666</v>
-      </c>
-      <c r="F20" s="2" t="n">
-        <v>31.33333333333333</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>jamaalwilliams</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Group2</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>3.466666666666667</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>5.266666666666667</v>
-      </c>
-      <c r="E21" s="2" t="n">
-        <v>46.86666666666667</v>
-      </c>
-      <c r="F21" s="2" t="n">
-        <v>31.66666666666667</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>jamaalwilliams</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>-0.666666666666667</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>-1.433333333333334</v>
-      </c>
-      <c r="E22" s="2" t="n">
-        <v>-6.199999999999996</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0.3333333333333357</v>
+        <v>-3</v>
       </c>
     </row>
   </sheetData>
